--- a/Indicadores_precios_vivienda_comparativa.xlsx
+++ b/Indicadores_precios_vivienda_comparativa.xlsx
@@ -956,7 +956,7 @@
   <dimension ref="C4:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Indicadores_precios_vivienda_comparativa.xlsx
+++ b/Indicadores_precios_vivienda_comparativa.xlsx
@@ -9,13 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9936" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9936"/>
   </bookViews>
   <sheets>
-    <sheet name="Fuentes" sheetId="4" r:id="rId1"/>
+    <sheet name="Limpio" sheetId="4" r:id="rId1"/>
     <sheet name="Comparativa" sheetId="1" r:id="rId2"/>
-    <sheet name="ECV brutos" sheetId="2" r:id="rId3"/>
-    <sheet name="EFF brutos" sheetId="3" r:id="rId4"/>
+    <sheet name="IPC brutos" sheetId="8" r:id="rId3"/>
+    <sheet name="IPVA brutos" sheetId="9" r:id="rId4"/>
+    <sheet name="Idealista brutos" sheetId="5" r:id="rId5"/>
+    <sheet name="Fotocasa Brutos" sheetId="6" r:id="rId6"/>
+    <sheet name="Serpavi brutos" sheetId="7" r:id="rId7"/>
+    <sheet name="ECV brutos" sheetId="2" r:id="rId8"/>
+    <sheet name="EFF brutos" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="56">
   <si>
     <t>Idealista</t>
   </si>
@@ -55,15 +60,9 @@
     <t>ECV</t>
   </si>
   <si>
-    <t>CaixaBank</t>
-  </si>
-  <si>
     <t>SERPAVI</t>
   </si>
   <si>
-    <t>Variación porcentual del precio del alquiler según distintas fuentes</t>
-  </si>
-  <si>
     <t>Script para reproducción de resultados disponible en: https://github.com/maiktreya/ECVmicrodata/blob/main/src/IPC_alquiler.R</t>
   </si>
   <si>
@@ -82,9 +81,6 @@
     <t>growth rate</t>
   </si>
   <si>
-    <t>EFF</t>
-  </si>
-  <si>
     <t>growth rate (cumulative)</t>
   </si>
   <si>
@@ -100,20 +96,133 @@
     <t>Acum.</t>
   </si>
   <si>
-    <t>2019-2023</t>
-  </si>
-  <si>
     <t>Var.</t>
+  </si>
+  <si>
+    <t>2018-2023</t>
+  </si>
+  <si>
+    <t>Variación</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>anio</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>Precio_m2</t>
+  </si>
+  <si>
+    <t>041 Alquiler de vivienda</t>
+  </si>
+  <si>
+    <t>SERPAVI (vivienda colectiva)</t>
+  </si>
+  <si>
+    <t>IPVA (total)</t>
+  </si>
+  <si>
+    <t>Índices IPVA</t>
+  </si>
+  <si>
+    <t>Resultados nacionales y por comunidades autónomas</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Índices nacionales y por comunidades autónomas: general y por tipo de edificación</t>
+  </si>
+  <si>
+    <t>Unidades: Índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Total Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Variación anual</t>
+  </si>
+  <si>
+    <t>Notas:</t>
+  </si>
+  <si>
+    <t>Por tratarse de una explotación de fuentes tributarias, el ámbito geográfico lo constituye el territorio fiscal común (es decir, todo el territorio nacional excepto Comunidad Foral de Navarra y País Vasco).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: </t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadística</t>
+  </si>
+  <si>
+    <t>€/m2</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>Índice de Precios de Consumo. Base 2021. Medias anuales</t>
+  </si>
+  <si>
+    <t>Resultados nacionales</t>
+  </si>
+  <si>
+    <t>Índices nacionales de subgrupos</t>
+  </si>
+  <si>
+    <t>Media anual</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Variación 2019-2023</t>
+  </si>
+  <si>
+    <t>* Serpavi no incluye País Vasco ni Navarra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,14 +241,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,8 +267,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +309,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89BEBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEEEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -367,22 +515,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,19 +604,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -425,16 +622,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,6 +646,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,218 +979,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J11"/>
+  <dimension ref="D8:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2020</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2024</v>
-      </c>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="5">
-        <v>6</v>
-      </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="55"/>
+      <c r="E8" s="56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E5">
-        <v>4.7</v>
-      </c>
-      <c r="F5">
-        <v>-2.9</v>
-      </c>
-      <c r="G5">
-        <v>2.7</v>
-      </c>
-      <c r="H5">
-        <v>8.9</v>
-      </c>
-      <c r="I5" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F6">
-        <v>-3.6</v>
-      </c>
-      <c r="G6">
-        <v>7.4</v>
-      </c>
-      <c r="H6">
-        <v>5.7</v>
-      </c>
-      <c r="I6" s="5">
-        <v>14</v>
-      </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+      <c r="E9" s="57">
+        <v>0.13756097560975611</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D10" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1.5</v>
-      </c>
-      <c r="E7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.6</v>
-      </c>
-      <c r="G7">
-        <v>1.3</v>
-      </c>
-      <c r="H7">
-        <v>2.1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+      <c r="E10" s="57">
+        <v>5.229689169252684E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>3.5</v>
-      </c>
-      <c r="E8">
-        <v>0.9</v>
-      </c>
-      <c r="F8">
-        <v>1.6</v>
-      </c>
-      <c r="G8">
-        <v>2.7</v>
-      </c>
-      <c r="H8">
-        <v>2.6</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15">
-        <v>8.9890253808918939E-3</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15">
-        <v>1.8123683514768896E-2</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
+      <c r="E11" s="57">
+        <v>7.9346175874326214E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="F10" s="15">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="G10" s="15">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="H10" s="15">
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
-        <v>7.9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="18"/>
+      <c r="E12" s="57">
+        <v>0.1393842319891711</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.15492957746478869</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:I2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -953,374 +1051,518 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:O12"/>
+  <dimension ref="B4:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="19"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31">
+        <v>2020</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31">
+        <v>2021</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31">
+        <v>2022</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="23">
+        <v>2023</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="43">
-        <v>2019</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45">
-        <v>2020</v>
-      </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="45">
-        <v>2021</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="45">
-        <v>2022</v>
-      </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="36">
-        <v>2023</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="42"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="23"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>19</v>
+      <c r="O6" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="16">
         <v>100</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="16">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="17">
         <f>D7+(D7*E7)</f>
         <v>104.6</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="16">
         <v>4.7E-2</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="17">
         <f>F7+(F7*G7)</f>
         <v>109.5162</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="16">
         <v>-2.8999999999999998E-2</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="17">
         <f>H7+(H7*I7)</f>
         <v>106.34023019999999</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="16">
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="17">
         <f>J7+(J7*K7)</f>
         <v>109.2114164154</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="16">
         <v>8.900000000000001E-2</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="25">
         <f>(O7-100)/100</f>
         <v>0.18931232476370596</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="18">
         <v>118.9312324763706</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="16">
         <v>100</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="17">
         <f t="shared" ref="F8:F12" si="0">D8+(D8*E8)</f>
         <v>105.1</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="16">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="17">
         <f t="shared" ref="H8:H12" si="1">F8+(F8*G8)</f>
         <v>109.93459999999999</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="16">
         <v>-3.6000000000000004E-2</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="17">
         <f t="shared" ref="J8:J12" si="2">H8+(H8*I8)</f>
         <v>105.97695439999998</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="16">
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="17">
         <f t="shared" ref="L8:L12" si="3">J8+(J8*K8)</f>
         <v>113.81924902559999</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="16">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="25">
         <f t="shared" ref="N8:N12" si="4">(O8-100)/100</f>
         <v>0.20306946220059188</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="18">
         <v>120.30694622005919</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="16">
         <v>100</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>101.5</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="16">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="17">
         <f t="shared" si="1"/>
         <v>102.6165</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="16">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="17">
         <f t="shared" si="2"/>
         <v>103.23219900000001</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="16">
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="17">
         <f t="shared" si="3"/>
         <v>104.57421758700001</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="16">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="25">
         <f t="shared" si="4"/>
         <v>6.7702761563270139E-2</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="18">
         <v>106.77027615632701</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="16">
         <v>100</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>103.5</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="16">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="17">
         <f t="shared" si="1"/>
         <v>104.4315</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="16">
         <v>1.6E-2</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="17">
         <f t="shared" si="2"/>
         <v>106.10240399999999</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="16">
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="17">
         <f t="shared" si="3"/>
         <v>108.96716890799999</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="16">
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="25">
         <f t="shared" si="4"/>
         <v>0.11800315299607987</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="18">
         <v>111.80031529960799</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="16">
         <v>100</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="16">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>103.2</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="16">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>105.17112</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="16">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="17">
         <f t="shared" si="2"/>
         <v>109.314862128</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="16">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="17">
         <f t="shared" si="3"/>
         <v>112.1133225984768</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="16">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="25">
         <f t="shared" si="4"/>
         <v>0.17584452741282461</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="18">
         <v>117.58445274128246</v>
       </c>
     </row>
     <row r="12" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="19">
         <v>100</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="19">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>107.9</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="20">
         <f t="shared" si="1"/>
         <v>110.48960000000001</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="19">
         <v>3.9E-2</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="20">
         <f t="shared" si="2"/>
         <v>114.79869440000002</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="20">
         <f t="shared" si="3"/>
         <v>116.97986959360001</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="19">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="26">
         <f t="shared" si="4"/>
         <v>0.23296782551654416</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="21">
         <v>123.29678255165442</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="10"/>
+      <c r="D23">
+        <v>2018</v>
+      </c>
+      <c r="E23">
+        <v>2019</v>
+      </c>
+      <c r="F23">
+        <v>2023</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E24">
+        <v>10.25</v>
+      </c>
+      <c r="F24">
+        <v>11.66</v>
+      </c>
+      <c r="G24" s="34">
+        <f>(F24-E24)/E24</f>
+        <v>0.13756097560975611</v>
+      </c>
+      <c r="H24" s="34">
+        <f>(F24-D24)/D24</f>
+        <v>0.18979591836734686</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="51">
+        <v>96.793999999999997</v>
+      </c>
+      <c r="E26" s="51">
+        <v>98.284999999999997</v>
+      </c>
+      <c r="F26" s="51">
+        <v>103.425</v>
+      </c>
+      <c r="G26" s="34">
+        <f>(F26-E26)/E26</f>
+        <v>5.229689169252684E-2</v>
+      </c>
+      <c r="H26" s="34">
+        <f>(F26-D26)/D26</f>
+        <v>6.850631237473398E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="51">
+        <v>106.247</v>
+      </c>
+      <c r="E27" s="51">
+        <v>109.999</v>
+      </c>
+      <c r="F27" s="51">
+        <v>118.727</v>
+      </c>
+      <c r="G27" s="34">
+        <f>(F27-E27)/E27</f>
+        <v>7.9346175874326214E-2</v>
+      </c>
+      <c r="H27" s="34">
+        <f>(F27-D27)/D27</f>
+        <v>0.11746214010748543</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>103.2</v>
+      </c>
+      <c r="F28">
+        <v>117.58445274128246</v>
+      </c>
+      <c r="G28" s="34">
+        <f>(F28-E28)/E28</f>
+        <v>0.1393842319891711</v>
+      </c>
+      <c r="H28" s="34">
+        <f>(F28-D28)/D28</f>
+        <v>0.17584452741282461</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>6.6</v>
+      </c>
+      <c r="E29">
+        <v>7.1</v>
+      </c>
+      <c r="F29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G29" s="34">
+        <f>(F29-E29)/E29</f>
+        <v>0.15492957746478869</v>
+      </c>
+      <c r="H29" s="34">
+        <f>(F29-D29)/D29</f>
+        <v>0.24242424242424238</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1580,1881 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="51">
+        <v>96.793999999999997</v>
+      </c>
+      <c r="D13" s="51">
+        <v>98.284999999999997</v>
+      </c>
+      <c r="E13" s="51">
+        <v>99.406999999999996</v>
+      </c>
+      <c r="F13" s="51">
+        <v>100</v>
+      </c>
+      <c r="G13" s="51">
+        <v>101.343</v>
+      </c>
+      <c r="H13" s="51">
+        <v>103.425</v>
+      </c>
+      <c r="I13" s="51">
+        <v>105.693</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="51">
+        <v>106.247</v>
+      </c>
+      <c r="C13" s="51">
+        <v>109.999</v>
+      </c>
+      <c r="D13" s="51">
+        <v>110.94199999999999</v>
+      </c>
+      <c r="E13" s="51">
+        <v>112.694</v>
+      </c>
+      <c r="F13" s="51">
+        <v>115.684</v>
+      </c>
+      <c r="G13" s="51">
+        <v>118.727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="52">
+        <v>2.6</v>
+      </c>
+      <c r="C14" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="D14" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="52">
+        <v>1.6</v>
+      </c>
+      <c r="F14" s="52">
+        <v>2.7</v>
+      </c>
+      <c r="G14" s="52">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="G2" s="40"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38">
+        <v>9.5</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="G3" s="40"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="38">
+        <v>9.6</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="G4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="G5" s="40"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="38">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="G6" s="40"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="38">
+        <v>9.9</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="G7" s="40"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="38">
+        <v>9.9</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="G8" s="40"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="38">
+        <v>10</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="G9" s="40"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="38">
+        <v>9.9</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="G10" s="40"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="38">
+        <v>9.9</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="G11" s="40"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="38">
+        <v>10</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="G12" s="40"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="38">
+        <v>10</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="G13" s="40"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2019</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="38">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2019</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="38">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="38">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2019</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>2019</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2019</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" s="38">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="38">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" s="38">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2019</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="38">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="38">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>2020</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="38">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" s="38">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>2020</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="38">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" s="38">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" s="38">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>2020</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="38">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>2020</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" s="38">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>2020</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37" s="38">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="38">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>2021</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>2021</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>2021</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>2021</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" s="38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>2021</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" s="38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44">
+        <v>2021</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>2021</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>2021</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" s="38">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>2021</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47" s="38">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>2021</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" s="38">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>2021</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49" s="38">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>2022</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>2022</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>2022</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <v>2022</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" s="38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>2022</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" s="38">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>2022</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" s="38">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>2022</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" s="38">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>2022</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" s="38">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>2022</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58" s="38">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>2022</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59" s="38">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60">
+        <v>2022</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60" s="38">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>2022</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>2023</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="38">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>2023</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="38">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>2023</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="38">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" s="38">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>2023</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="38">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" s="38">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68">
+        <v>2023</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" s="38">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" s="38">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70">
+        <v>2023</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" s="38">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>2023</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71" s="38">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>2023</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72" s="38">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>2023</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73" s="38">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>2024</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="38">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75">
+        <v>2024</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" s="38">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76">
+        <v>2024</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="38">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77">
+        <v>2024</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" s="38">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78">
+        <v>2024</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78" s="38">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79">
+        <v>2024</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" s="38">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80">
+        <v>2024</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80" s="38">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <v>2024</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" s="38">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <v>2024</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82" s="38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83">
+        <v>2024</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83" s="38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84">
+        <v>2024</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84" s="38">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85">
+        <v>2024</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" s="38">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86">
+        <v>2025</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="38">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87">
+        <v>2025</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" s="38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88">
+        <v>2025</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89">
+        <v>2025</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" s="38">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90">
+        <v>2025</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90" s="38">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91">
+        <v>2025</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91" s="38">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92">
+        <v>2025</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92" s="38">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93">
+        <v>2025</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94">
+        <v>2025</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95">
+        <v>2025</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96">
+        <v>2025</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97">
+        <v>2025</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>14.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E2:G13">
+    <sortCondition descending="1" ref="G2:G13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F8"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,116 +3464,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="D4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="4">
+        <v>520.6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E5" s="1">
+        <v>537.51</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="1">
+        <v>547.89</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="1">
+        <v>569.86</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="D8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="1">
+        <v>584.64</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.8800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E9" s="1">
+        <v>613.85</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="D4" s="9">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="12">
-        <v>520.6</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="9">
-        <v>2020</v>
-      </c>
-      <c r="E5" s="9">
-        <v>537.51</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1.9099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="9">
-        <v>2021</v>
-      </c>
-      <c r="E6" s="9">
-        <v>547.89</v>
-      </c>
-      <c r="F6" s="13">
-        <v>3.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E7" s="9">
-        <v>569.86</v>
-      </c>
-      <c r="F7" s="13">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="D8" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E8" s="9">
-        <v>584.64</v>
-      </c>
-      <c r="F8" s="13">
-        <v>4.8800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E9" s="9">
-        <v>613.85</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1470,12 +3583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,155 +3599,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D4" s="9">
+      <c r="D4" s="1">
         <v>2002</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="4">
         <v>266.20959480471799</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>10</v>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="9">
+      <c r="D5" s="1">
         <v>2005</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="4">
         <v>277.90886501853203</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="5">
         <v>4.3009287364927901E-2</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="5">
         <f>(LOG(E5)-LOG(E4))/3</f>
         <v>6.2262320577262109E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="9">
+      <c r="D6" s="1">
         <v>2008</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>352.714685128133</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="5">
         <v>0.238366236419399</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="5">
         <f t="shared" ref="G6:G11" si="0">(LOG(E6)-LOG(E5))/3</f>
         <v>3.4507047049663786E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="9">
+      <c r="D7" s="1">
         <v>2011</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="4">
         <v>471.49994186690799</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="5">
         <v>0.290259506089802</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>4.201936727158806E-2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="9">
+      <c r="D8" s="1">
         <v>2014</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="4">
         <v>406.32428918754499</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="5">
         <v>-0.148767396161093</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>-2.1536286413292565E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="9">
+      <c r="D9" s="1">
         <v>2017</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="4">
         <v>366.75840560732399</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="5">
         <v>-0.10244824668331499</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>-1.4830902738408813E-2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D10" s="9">
+      <c r="D10" s="1">
         <v>2020</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="4">
         <v>390.25381044589699</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="5">
         <v>6.2093987527760901E-2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>8.9890253808918939E-3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D11" s="9">
+      <c r="D11" s="1">
         <v>2022</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="4">
         <v>442.30128668016403</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="5">
         <v>0.125193970473748</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>1.8123683514768896E-2</v>
       </c>
